--- a/Template/02_Analise_e_Exploracao_df_estat_continuas.xlsx
+++ b/Template/02_Analise_e_Exploracao_df_estat_continuas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="68">
   <si>
     <t>feature</t>
   </si>
@@ -79,97 +79,133 @@
     <t>Rejeitar H0</t>
   </si>
   <si>
-    <t>Teste_Shapiro</t>
-  </si>
-  <si>
-    <t>Teste_Shapiro_p</t>
-  </si>
-  <si>
-    <t>Rejeitar H0-Shapiro</t>
+    <t>Teste_Kolmogorov</t>
+  </si>
+  <si>
+    <t>Teste_Kolmogorov_p</t>
+  </si>
+  <si>
+    <t>Rejeitar H0-Kolmogorov</t>
+  </si>
+  <si>
+    <t>vlr_mes_05</t>
+  </si>
+  <si>
+    <t>pagamento_valor_voucher</t>
+  </si>
+  <si>
+    <t>velocidade_km_dias</t>
+  </si>
+  <si>
+    <t>habit_km2_mediana</t>
+  </si>
+  <si>
+    <t>vlr_mes_03</t>
+  </si>
+  <si>
+    <t>frete_valor</t>
+  </si>
+  <si>
+    <t>pagamento_valor_boleto</t>
+  </si>
+  <si>
+    <t>preco_frete</t>
+  </si>
+  <si>
+    <t>vlr_mes_01</t>
+  </si>
+  <si>
+    <t>custo_frete</t>
+  </si>
+  <si>
+    <t>valor_taxa</t>
+  </si>
+  <si>
+    <t>vlr_mes_11</t>
+  </si>
+  <si>
+    <t>distancia_cliente_vendedor_mediana</t>
+  </si>
+  <si>
+    <t>pagamento_valor_cartao_credito</t>
+  </si>
+  <si>
+    <t>vlr_mes_08</t>
+  </si>
+  <si>
+    <t>adm_custos</t>
+  </si>
+  <si>
+    <t>vlr_medio_pedido</t>
   </si>
   <si>
     <t>plano_valor</t>
   </si>
   <si>
+    <t>vlr_mes_12</t>
+  </si>
+  <si>
+    <t>receitas</t>
+  </si>
+  <si>
+    <t>produto_volume_cm3_mediana</t>
+  </si>
+  <si>
+    <t>vlr_mes_02</t>
+  </si>
+  <si>
+    <t>custo_reviews</t>
+  </si>
+  <si>
+    <t>razao_frete_preco</t>
+  </si>
+  <si>
+    <t>pagamento_valor_cartao_debito</t>
+  </si>
+  <si>
+    <t>preco</t>
+  </si>
+  <si>
+    <t>populacao_mediana</t>
+  </si>
+  <si>
+    <t>pedidos_por_dia_media</t>
+  </si>
+  <si>
+    <t>vlr_mes_09</t>
+  </si>
+  <si>
+    <t>vlr_frete_por_pedido_media</t>
+  </si>
+  <si>
+    <t>lucro</t>
+  </si>
+  <si>
+    <t>vlr_mes_04</t>
+  </si>
+  <si>
+    <t>vlr_mes_06</t>
+  </si>
+  <si>
     <t>plano_comissao</t>
   </si>
   <si>
-    <t>pagamento_valor_cartao_debito</t>
-  </si>
-  <si>
-    <t>habit_km2_mediana</t>
-  </si>
-  <si>
-    <t>frete_valor</t>
-  </si>
-  <si>
     <t>Area(km2)_mediana</t>
   </si>
   <si>
-    <t>pagamento_valor_boleto</t>
-  </si>
-  <si>
-    <t>pagamento_valor_cartao_credito</t>
-  </si>
-  <si>
-    <t>receitas</t>
-  </si>
-  <si>
-    <t>razao_frete_pedidos</t>
-  </si>
-  <si>
-    <t>lucro</t>
-  </si>
-  <si>
-    <t>velocidade_km_dias</t>
-  </si>
-  <si>
-    <t>custo_reviews</t>
-  </si>
-  <si>
-    <t>pagamento_valor_voucher</t>
-  </si>
-  <si>
-    <t>preco</t>
+    <t>produto_peso_g_mediana</t>
+  </si>
+  <si>
+    <t>valor_comissao</t>
+  </si>
+  <si>
+    <t>vlr_mes_07</t>
   </si>
   <si>
     <t>densidade_produto_mediana</t>
   </si>
   <si>
-    <t>produto_peso_g_mediana</t>
-  </si>
-  <si>
-    <t>pedidos_por_dia_media</t>
-  </si>
-  <si>
-    <t>custo_frete</t>
-  </si>
-  <si>
-    <t>distancia_cliente_vendedor_mediana</t>
-  </si>
-  <si>
-    <t>preco_frete</t>
-  </si>
-  <si>
-    <t>valor_taxa</t>
-  </si>
-  <si>
-    <t>populacao_mediana</t>
-  </si>
-  <si>
-    <t>vlr_medio_pedido</t>
-  </si>
-  <si>
-    <t>produto_volume_cm3_mediana</t>
-  </si>
-  <si>
-    <t>adm_custos</t>
-  </si>
-  <si>
-    <t>valor_comissao</t>
-  </si>
-  <si>
-    <t>razao_frete_preco</t>
+    <t>vlr_mes_10</t>
   </si>
   <si>
     <t>Direita</t>
@@ -178,10 +214,10 @@
     <t>Zero</t>
   </si>
   <si>
-    <t>leptocúrtica-cauda fina e lisa</t>
-  </si>
-  <si>
-    <t>platicúrtica-cauda grossa e pontiaguda</t>
+    <t>leptocúrtica-cauda fina e pontiaguda</t>
+  </si>
+  <si>
+    <t>platicúrtica-cauda grossa e espessa</t>
   </si>
 </sst>
 </file>
@@ -539,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X29"/>
+  <dimension ref="A1:X41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,64 +663,64 @@
         <v>1658</v>
       </c>
       <c r="C2">
-        <v>38.67</v>
+        <v>292.68</v>
       </c>
       <c r="D2">
-        <v>18.99</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>47.09</v>
+        <v>1060.58</v>
       </c>
       <c r="F2">
-        <v>2217.65</v>
+        <v>1124839.37</v>
       </c>
       <c r="G2">
-        <v>122</v>
+        <v>362</v>
       </c>
       <c r="H2">
-        <v>18.99</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>18.99</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>18.99</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>18.99</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>18.99</v>
+        <v>149.97</v>
       </c>
       <c r="M2">
-        <v>173.99</v>
+        <v>19763.92</v>
       </c>
       <c r="N2">
-        <v>155</v>
+        <v>19763.92</v>
       </c>
       <c r="O2">
-        <v>2.33</v>
+        <v>10.09</v>
       </c>
       <c r="P2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="Q2">
-        <v>3.85</v>
+        <v>143.53</v>
       </c>
       <c r="R2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="S2">
-        <v>738.28936510299</v>
+        <v>2653.267166518453</v>
       </c>
       <c r="T2">
-        <v>4.81394743711386E-161</v>
+        <v>0</v>
       </c>
       <c r="U2" t="b">
         <v>1</v>
       </c>
       <c r="V2">
-        <v>0.4530003070831299</v>
+        <v>0.5</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -701,64 +737,64 @@
         <v>1658</v>
       </c>
       <c r="C3">
-        <v>0.21</v>
+        <v>66.45</v>
       </c>
       <c r="D3">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.01</v>
+        <v>220.17</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>48473.84</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>331</v>
       </c>
       <c r="H3">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.21</v>
+        <v>52.09</v>
       </c>
       <c r="M3">
-        <v>0.21</v>
+        <v>4198.31</v>
       </c>
       <c r="N3">
-        <v>0.01999999999999999</v>
+        <v>4198.31</v>
       </c>
       <c r="O3">
-        <v>-2.02</v>
+        <v>10</v>
       </c>
       <c r="P3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="Q3">
-        <v>2.51</v>
+        <v>144.04</v>
       </c>
       <c r="R3" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="S3">
-        <v>602.6473860111504</v>
+        <v>2643.180518573974</v>
       </c>
       <c r="T3">
-        <v>1.37019652251646E-131</v>
+        <v>0</v>
       </c>
       <c r="U3" t="b">
         <v>1</v>
       </c>
       <c r="V3">
-        <v>0.4841172099113464</v>
+        <v>0.5</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -775,64 +811,64 @@
         <v>1658</v>
       </c>
       <c r="C4">
-        <v>6.02</v>
+        <v>51.22</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>44.5</v>
       </c>
       <c r="E4">
-        <v>25.18</v>
+        <v>36.44</v>
       </c>
       <c r="F4">
-        <v>634.1799999999999</v>
+        <v>1328.09</v>
       </c>
       <c r="G4">
-        <v>418</v>
+        <v>71</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>43.9</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>28.14</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>44.5</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>63.75</v>
       </c>
       <c r="M4">
-        <v>323.94</v>
+        <v>405.46</v>
       </c>
       <c r="N4">
-        <v>323.94</v>
+        <v>405.36</v>
       </c>
       <c r="O4">
-        <v>6.16</v>
+        <v>2.34</v>
       </c>
       <c r="P4" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="Q4">
-        <v>49.35</v>
+        <v>10.75</v>
       </c>
       <c r="R4" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="S4">
-        <v>1955.230413682628</v>
+        <v>899.7399012158845</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>4.206906665720997E-196</v>
       </c>
       <c r="U4" t="b">
         <v>1</v>
       </c>
       <c r="V4">
-        <v>0.2583959102630615</v>
+        <v>0.9834065235482564</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -888,13 +924,13 @@
         <v>1.34</v>
       </c>
       <c r="P5" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="Q5">
         <v>0.98</v>
       </c>
       <c r="R5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="S5">
         <v>332.372038667918</v>
@@ -906,10 +942,10 @@
         <v>1</v>
       </c>
       <c r="V5">
-        <v>0.821528434753418</v>
+        <v>0.998646425874481</v>
       </c>
       <c r="W5">
-        <v>1.735087758526988E-39</v>
+        <v>0</v>
       </c>
       <c r="X5" t="b">
         <v>1</v>
@@ -923,55 +959,55 @@
         <v>1658</v>
       </c>
       <c r="C6">
-        <v>536.3</v>
+        <v>216.05</v>
       </c>
       <c r="D6">
-        <v>126.47</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1450.62</v>
+        <v>739.01</v>
       </c>
       <c r="F6">
-        <v>2104301.67</v>
+        <v>546139.3100000001</v>
       </c>
       <c r="G6">
-        <v>270</v>
+        <v>342</v>
       </c>
       <c r="H6">
-        <v>15.1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>42.77</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>126.46</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>418.28</v>
+        <v>63.63</v>
       </c>
       <c r="M6">
-        <v>19598.24</v>
+        <v>9735.52</v>
       </c>
       <c r="N6">
-        <v>19597.49</v>
+        <v>9735.52</v>
       </c>
       <c r="O6">
-        <v>7.62</v>
+        <v>6.6</v>
       </c>
       <c r="P6" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="Q6">
-        <v>76.45</v>
+        <v>58.22</v>
       </c>
       <c r="R6" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="S6">
-        <v>2244.971432454806</v>
+        <v>2051.202501078129</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -980,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="V6">
-        <v>0.3421175479888916</v>
+        <v>0.5</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -997,55 +1033,55 @@
         <v>1658</v>
       </c>
       <c r="C7">
-        <v>939.24</v>
+        <v>536.3</v>
       </c>
       <c r="D7">
-        <v>707.17</v>
+        <v>126.47</v>
       </c>
       <c r="E7">
-        <v>1071.22</v>
+        <v>1450.62</v>
       </c>
       <c r="F7">
-        <v>1147510.03</v>
+        <v>2104301.67</v>
       </c>
       <c r="G7">
-        <v>114</v>
+        <v>270</v>
       </c>
       <c r="H7">
-        <v>1200.177</v>
+        <v>15.1</v>
       </c>
       <c r="I7">
-        <v>15.33</v>
+        <v>0.75</v>
       </c>
       <c r="J7">
-        <v>496.68</v>
+        <v>42.77</v>
       </c>
       <c r="K7">
-        <v>707.17</v>
+        <v>126.46</v>
       </c>
       <c r="L7">
-        <v>1099.41</v>
+        <v>418.28</v>
       </c>
       <c r="M7">
-        <v>14419.92</v>
+        <v>19598.24</v>
       </c>
       <c r="N7">
-        <v>14404.59</v>
+        <v>19597.49</v>
       </c>
       <c r="O7">
-        <v>5.7</v>
+        <v>7.62</v>
       </c>
       <c r="P7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="Q7">
-        <v>44.05</v>
+        <v>76.45</v>
       </c>
       <c r="R7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="S7">
-        <v>1859.877384688301</v>
+        <v>2244.971432454806</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -1054,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="V7">
-        <v>0.4881439805030823</v>
+        <v>0.9987872242601875</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1110,13 +1146,13 @@
         <v>7.23</v>
       </c>
       <c r="P8" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="Q8">
         <v>69.3</v>
       </c>
       <c r="R8" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="S8">
         <v>2173.616530095134</v>
@@ -1128,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="V8">
-        <v>0.3560417890548706</v>
+        <v>0.6580217129071171</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -1145,55 +1181,55 @@
         <v>1658</v>
       </c>
       <c r="C9">
-        <v>2995.2</v>
+        <v>3669.24</v>
       </c>
       <c r="D9">
-        <v>691.95</v>
+        <v>857.33</v>
       </c>
       <c r="E9">
-        <v>8691.09</v>
+        <v>10369.78</v>
       </c>
       <c r="F9">
-        <v>75535060.06999999</v>
+        <v>107532294.57</v>
       </c>
       <c r="G9">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>46.01</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>15.22</v>
       </c>
       <c r="J9">
-        <v>195.64</v>
+        <v>253.31</v>
       </c>
       <c r="K9">
-        <v>691.95</v>
+        <v>857.33</v>
       </c>
       <c r="L9">
-        <v>2344.27</v>
+        <v>2845.08</v>
       </c>
       <c r="M9">
-        <v>121146.24</v>
+        <v>142377.96</v>
       </c>
       <c r="N9">
-        <v>121146.24</v>
+        <v>142362.74</v>
       </c>
       <c r="O9">
-        <v>7.81</v>
+        <v>7.42</v>
       </c>
       <c r="P9" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="Q9">
-        <v>77.16</v>
+        <v>68.86</v>
       </c>
       <c r="R9" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="S9">
-        <v>2273.381736130436</v>
+        <v>2201.246837598713</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -1202,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="V9">
-        <v>0.3177173137664795</v>
+        <v>1</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -1219,55 +1255,55 @@
         <v>1658</v>
       </c>
       <c r="C10">
-        <v>940.8200000000001</v>
+        <v>67.75</v>
       </c>
       <c r="D10">
-        <v>243.6</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>2188.85</v>
+        <v>346.29</v>
       </c>
       <c r="F10">
-        <v>4791052.63</v>
+        <v>119917.53</v>
       </c>
       <c r="G10">
-        <v>233</v>
+        <v>511.0000000000001</v>
       </c>
       <c r="H10">
-        <v>31.34</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>25.25</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>82.29000000000001</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>243.6</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>737.03</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>26905.13</v>
+        <v>5363.81</v>
       </c>
       <c r="N10">
-        <v>26879.88</v>
+        <v>5363.81</v>
       </c>
       <c r="O10">
-        <v>5.94</v>
+        <v>9.34</v>
       </c>
       <c r="P10" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="Q10">
-        <v>46.97</v>
+        <v>106</v>
       </c>
       <c r="R10" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="S10">
-        <v>1909.999648381389</v>
+        <v>2521.85640794561</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -1276,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="V10">
-        <v>0.4141134023666382</v>
+        <v>0.5</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -1293,64 +1329,64 @@
         <v>1658</v>
       </c>
       <c r="C11">
-        <v>23.05</v>
+        <v>165.59</v>
       </c>
       <c r="D11">
-        <v>18.95</v>
+        <v>33.97</v>
       </c>
       <c r="E11">
-        <v>13.67</v>
+        <v>526.6900000000001</v>
       </c>
       <c r="F11">
-        <v>186.86</v>
+        <v>277402.77</v>
       </c>
       <c r="G11">
-        <v>59</v>
+        <v>318</v>
       </c>
       <c r="H11">
-        <v>15.1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>15.4</v>
+        <v>7.72</v>
       </c>
       <c r="K11">
-        <v>18.95</v>
+        <v>33.97</v>
       </c>
       <c r="L11">
-        <v>25.2</v>
+        <v>120.57</v>
       </c>
       <c r="M11">
-        <v>126.72</v>
+        <v>9544.969999999999</v>
       </c>
       <c r="N11">
-        <v>125.97</v>
+        <v>9544.969999999999</v>
       </c>
       <c r="O11">
-        <v>2.98</v>
+        <v>9.07</v>
       </c>
       <c r="P11" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="Q11">
-        <v>12.27</v>
+        <v>112.58</v>
       </c>
       <c r="R11" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="S11">
-        <v>1087.96174048285</v>
+        <v>2495.591991414596</v>
       </c>
       <c r="T11">
-        <v>5.650798135848367E-237</v>
+        <v>0</v>
       </c>
       <c r="U11" t="b">
         <v>1</v>
       </c>
       <c r="V11">
-        <v>0.7090941667556763</v>
+        <v>0.7919640487017836</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -1367,55 +1403,55 @@
         <v>1658</v>
       </c>
       <c r="C12">
-        <v>115.33</v>
+        <v>64.7</v>
       </c>
       <c r="D12">
-        <v>-110.13</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>1031.99</v>
+        <v>221.88</v>
       </c>
       <c r="F12">
-        <v>1065012.42</v>
+        <v>49230.42</v>
       </c>
       <c r="G12">
-        <v>894.9999999999999</v>
+        <v>343</v>
       </c>
       <c r="H12">
-        <v>-101.84</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>-1336.38</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>-190.8</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>-110.14</v>
+        <v>10</v>
       </c>
       <c r="L12">
-        <v>-4.87</v>
+        <v>40</v>
       </c>
       <c r="M12">
-        <v>19108.44</v>
+        <v>4055</v>
       </c>
       <c r="N12">
-        <v>20444.82</v>
+        <v>4055</v>
       </c>
       <c r="O12">
-        <v>9.23</v>
+        <v>9.81</v>
       </c>
       <c r="P12" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="Q12">
-        <v>125.58</v>
+        <v>134.73</v>
       </c>
       <c r="R12" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="S12">
-        <v>2531.335099455732</v>
+        <v>2612.258591740941</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -1424,7 +1460,7 @@
         <v>1</v>
       </c>
       <c r="V12">
-        <v>0.3562967777252197</v>
+        <v>0.6574182899467393</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -1441,67 +1477,67 @@
         <v>1658</v>
       </c>
       <c r="C13">
-        <v>51.22</v>
+        <v>616.39</v>
       </c>
       <c r="D13">
-        <v>44.5</v>
+        <v>76.67</v>
       </c>
       <c r="E13">
-        <v>36.44</v>
+        <v>1924.86</v>
       </c>
       <c r="F13">
-        <v>1328.09</v>
+        <v>3705096.93</v>
       </c>
       <c r="G13">
-        <v>71</v>
+        <v>312</v>
       </c>
       <c r="H13">
-        <v>43.9</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>28.14</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>44.5</v>
+        <v>76.67</v>
       </c>
       <c r="L13">
-        <v>63.75</v>
+        <v>474.8</v>
       </c>
       <c r="M13">
-        <v>405.46</v>
+        <v>24929.4</v>
       </c>
       <c r="N13">
-        <v>405.36</v>
+        <v>24929.4</v>
       </c>
       <c r="O13">
-        <v>2.34</v>
+        <v>7.29</v>
       </c>
       <c r="P13" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="Q13">
-        <v>10.75</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="R13" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="S13">
-        <v>899.7399012158845</v>
+        <v>2174.220713724368</v>
       </c>
       <c r="T13">
-        <v>4.206906665720997E-196</v>
+        <v>0</v>
       </c>
       <c r="U13" t="b">
         <v>1</v>
       </c>
       <c r="V13">
-        <v>0.8357076048851013</v>
+        <v>0.5524728588661038</v>
       </c>
       <c r="W13">
-        <v>2.667367983466282E-38</v>
+        <v>0</v>
       </c>
       <c r="X13" t="b">
         <v>1</v>
@@ -1515,64 +1551,64 @@
         <v>1658</v>
       </c>
       <c r="C14">
-        <v>177.39</v>
+        <v>550.97</v>
       </c>
       <c r="D14">
-        <v>40</v>
+        <v>448.15</v>
       </c>
       <c r="E14">
-        <v>553.23</v>
+        <v>431.8</v>
       </c>
       <c r="F14">
-        <v>306064.36</v>
+        <v>186450.18</v>
       </c>
       <c r="G14">
-        <v>312</v>
+        <v>78</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.057</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>326.06</v>
       </c>
       <c r="K14">
-        <v>40</v>
+        <v>448.15</v>
       </c>
       <c r="L14">
-        <v>135</v>
+        <v>668.17</v>
       </c>
       <c r="M14">
-        <v>10740</v>
+        <v>3016.68</v>
       </c>
       <c r="N14">
-        <v>10740</v>
+        <v>3015.62</v>
       </c>
       <c r="O14">
-        <v>10.02</v>
+        <v>2.23</v>
       </c>
       <c r="P14" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="Q14">
-        <v>139.67</v>
+        <v>6.63</v>
       </c>
       <c r="R14" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="S14">
-        <v>2641.338717986096</v>
+        <v>790.5104526770174</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>2.202096049297796E-172</v>
       </c>
       <c r="U14" t="b">
         <v>1</v>
       </c>
       <c r="V14">
-        <v>0.2919864654541016</v>
+        <v>0.9971275972286122</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -1589,19 +1625,19 @@
         <v>1658</v>
       </c>
       <c r="C15">
-        <v>66.45</v>
+        <v>2995.2</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>691.95</v>
       </c>
       <c r="E15">
-        <v>220.17</v>
+        <v>8691.09</v>
       </c>
       <c r="F15">
-        <v>48473.84</v>
+        <v>75535060.06999999</v>
       </c>
       <c r="G15">
-        <v>331</v>
+        <v>290</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1610,34 +1646,34 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>195.64</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>691.95</v>
       </c>
       <c r="L15">
-        <v>52.09</v>
+        <v>2344.27</v>
       </c>
       <c r="M15">
-        <v>4198.31</v>
+        <v>121146.24</v>
       </c>
       <c r="N15">
-        <v>4198.31</v>
+        <v>121146.24</v>
       </c>
       <c r="O15">
-        <v>10</v>
+        <v>7.81</v>
       </c>
       <c r="P15" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="Q15">
-        <v>144.04</v>
+        <v>77.16</v>
       </c>
       <c r="R15" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="S15">
-        <v>2643.180518573974</v>
+        <v>2273.381736130436</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -1646,7 +1682,7 @@
         <v>1</v>
       </c>
       <c r="V15">
-        <v>0.299475371837616</v>
+        <v>0.9523522164807602</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -1663,55 +1699,55 @@
         <v>1658</v>
       </c>
       <c r="C16">
-        <v>3132.94</v>
+        <v>360.59</v>
       </c>
       <c r="D16">
-        <v>710.48</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>9113.639999999999</v>
+        <v>1334.71</v>
       </c>
       <c r="F16">
-        <v>83058352.52</v>
+        <v>1781438.3</v>
       </c>
       <c r="G16">
-        <v>291</v>
+        <v>370</v>
       </c>
       <c r="H16">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>204.02</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>710.48</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>2353.73</v>
+        <v>237.96</v>
       </c>
       <c r="M16">
-        <v>122779.72</v>
+        <v>30521.12</v>
       </c>
       <c r="N16">
-        <v>122773.72</v>
+        <v>30521.12</v>
       </c>
       <c r="O16">
-        <v>7.71</v>
+        <v>11.57</v>
       </c>
       <c r="P16" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="Q16">
-        <v>74.69</v>
+        <v>198.04</v>
       </c>
       <c r="R16" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="S16">
-        <v>2254.923760722759</v>
+        <v>2861.682973678097</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -1720,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="V16">
-        <v>0.3171204328536987</v>
+        <v>0.5</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -1737,64 +1773,64 @@
         <v>1658</v>
       </c>
       <c r="C17">
-        <v>0.19</v>
+        <v>482.51</v>
       </c>
       <c r="D17">
-        <v>0.12</v>
+        <v>326.23</v>
       </c>
       <c r="E17">
-        <v>0.66</v>
+        <v>473.9</v>
       </c>
       <c r="F17">
-        <v>0.43</v>
+        <v>224582.63</v>
       </c>
       <c r="G17">
-        <v>347</v>
+        <v>98</v>
       </c>
       <c r="H17">
-        <v>0.06</v>
+        <v>133.18</v>
       </c>
       <c r="I17">
-        <v>0.01</v>
+        <v>133.18</v>
       </c>
       <c r="J17">
-        <v>0.08</v>
+        <v>188.35</v>
       </c>
       <c r="K17">
-        <v>0.12</v>
+        <v>326.23</v>
       </c>
       <c r="L17">
-        <v>0.19</v>
+        <v>595.61</v>
       </c>
       <c r="M17">
-        <v>18.18</v>
+        <v>4545.8</v>
       </c>
       <c r="N17">
-        <v>18.17</v>
+        <v>4412.62</v>
       </c>
       <c r="O17">
-        <v>22.36</v>
+        <v>3.03</v>
       </c>
       <c r="P17" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="Q17">
-        <v>562.41</v>
+        <v>13.93</v>
       </c>
       <c r="R17" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="S17">
-        <v>3877.707315416141</v>
+        <v>1121.268274015902</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>3.30893267463505E-244</v>
       </c>
       <c r="U17" t="b">
         <v>1</v>
       </c>
       <c r="V17">
-        <v>0.1151596307754517</v>
+        <v>1</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -1811,64 +1847,64 @@
         <v>1658</v>
       </c>
       <c r="C18">
-        <v>2328.4</v>
+        <v>175.59</v>
       </c>
       <c r="D18">
-        <v>800</v>
+        <v>122.94</v>
       </c>
       <c r="E18">
-        <v>4247.73</v>
+        <v>170.43</v>
       </c>
       <c r="F18">
-        <v>18043178.34</v>
+        <v>29045.88</v>
       </c>
       <c r="G18">
-        <v>182</v>
+        <v>97</v>
       </c>
       <c r="H18">
-        <v>200</v>
+        <v>182.45</v>
       </c>
       <c r="I18">
-        <v>50</v>
+        <v>11.63</v>
       </c>
       <c r="J18">
-        <v>390</v>
+        <v>75.27</v>
       </c>
       <c r="K18">
-        <v>800</v>
+        <v>122.94</v>
       </c>
       <c r="L18">
-        <v>1993.75</v>
+        <v>205.24</v>
       </c>
       <c r="M18">
-        <v>30000</v>
+        <v>1219.41</v>
       </c>
       <c r="N18">
-        <v>29950</v>
+        <v>1207.78</v>
       </c>
       <c r="O18">
-        <v>3.77</v>
+        <v>2.8</v>
       </c>
       <c r="P18" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="Q18">
-        <v>17.01</v>
+        <v>9.73</v>
       </c>
       <c r="R18" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="S18">
-        <v>1326.506721972849</v>
+        <v>1002.125954286117</v>
       </c>
       <c r="T18">
-        <v>8.968611666122093E-289</v>
+        <v>2.461013186650976E-218</v>
       </c>
       <c r="U18" t="b">
         <v>1</v>
       </c>
       <c r="V18">
-        <v>0.5229181051254272</v>
+        <v>1</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -1885,64 +1921,64 @@
         <v>1658</v>
       </c>
       <c r="C19">
-        <v>0.36</v>
+        <v>38.67</v>
       </c>
       <c r="D19">
-        <v>0.14</v>
+        <v>18.99</v>
       </c>
       <c r="E19">
-        <v>0.44</v>
+        <v>47.09</v>
       </c>
       <c r="F19">
-        <v>0.2</v>
+        <v>2217.65</v>
       </c>
       <c r="G19">
         <v>122</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>18.99</v>
       </c>
       <c r="I19">
-        <v>0.01</v>
+        <v>18.99</v>
       </c>
       <c r="J19">
-        <v>0.06</v>
+        <v>18.99</v>
       </c>
       <c r="K19">
-        <v>0.14</v>
+        <v>18.99</v>
       </c>
       <c r="L19">
-        <v>0.57</v>
+        <v>18.99</v>
       </c>
       <c r="M19">
-        <v>3.51</v>
+        <v>173.99</v>
       </c>
       <c r="N19">
-        <v>3.5</v>
+        <v>155</v>
       </c>
       <c r="O19">
-        <v>1.93</v>
+        <v>2.33</v>
       </c>
       <c r="P19" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="Q19">
-        <v>5.82</v>
+        <v>3.85</v>
       </c>
       <c r="R19" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="S19">
-        <v>685.8768310090161</v>
+        <v>738.28936510299</v>
       </c>
       <c r="T19">
-        <v>1.15807987285617E-149</v>
+        <v>4.81394743711386E-161</v>
       </c>
       <c r="U19" t="b">
         <v>1</v>
       </c>
       <c r="V19">
-        <v>0.7164044380187988</v>
+        <v>1</v>
       </c>
       <c r="W19">
         <v>0</v>
@@ -1959,19 +1995,19 @@
         <v>1658</v>
       </c>
       <c r="C20">
-        <v>165.59</v>
+        <v>456.04</v>
       </c>
       <c r="D20">
-        <v>33.97</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>526.6900000000001</v>
+        <v>1515.41</v>
       </c>
       <c r="F20">
-        <v>277402.77</v>
+        <v>2296469.94</v>
       </c>
       <c r="G20">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1980,34 +2016,34 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.72</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>33.97</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>120.57</v>
+        <v>351.65</v>
       </c>
       <c r="M20">
-        <v>9544.969999999999</v>
+        <v>20401.27</v>
       </c>
       <c r="N20">
-        <v>9544.969999999999</v>
+        <v>20401.27</v>
       </c>
       <c r="O20">
-        <v>9.07</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="P20" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="Q20">
-        <v>112.58</v>
+        <v>78.95</v>
       </c>
       <c r="R20" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="S20">
-        <v>2495.591991414596</v>
+        <v>2308.444610336309</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -2016,7 +2052,7 @@
         <v>1</v>
       </c>
       <c r="V20">
-        <v>0.2912682294845581</v>
+        <v>0.5</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -2033,67 +2069,67 @@
         <v>1658</v>
       </c>
       <c r="C21">
-        <v>550.97</v>
+        <v>940.8200000000001</v>
       </c>
       <c r="D21">
-        <v>448.15</v>
+        <v>243.6</v>
       </c>
       <c r="E21">
-        <v>431.8</v>
+        <v>2188.85</v>
       </c>
       <c r="F21">
-        <v>186450.18</v>
+        <v>4791052.63</v>
       </c>
       <c r="G21">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="H21">
-        <v>1.057</v>
+        <v>31.34</v>
       </c>
       <c r="I21">
-        <v>1.06</v>
+        <v>25.25</v>
       </c>
       <c r="J21">
-        <v>326.06</v>
+        <v>82.29000000000001</v>
       </c>
       <c r="K21">
-        <v>448.15</v>
+        <v>243.6</v>
       </c>
       <c r="L21">
-        <v>668.17</v>
+        <v>737.03</v>
       </c>
       <c r="M21">
-        <v>3016.68</v>
+        <v>26905.13</v>
       </c>
       <c r="N21">
-        <v>3015.62</v>
+        <v>26879.88</v>
       </c>
       <c r="O21">
-        <v>2.23</v>
+        <v>5.94</v>
       </c>
       <c r="P21" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="Q21">
-        <v>6.63</v>
+        <v>46.97</v>
       </c>
       <c r="R21" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="S21">
-        <v>790.5104526770174</v>
+        <v>1909.999648381389</v>
       </c>
       <c r="T21">
-        <v>2.202096049297796E-172</v>
+        <v>0</v>
       </c>
       <c r="U21" t="b">
         <v>1</v>
       </c>
       <c r="V21">
-        <v>0.7996374368667603</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>3.540100310423785E-41</v>
+        <v>0</v>
       </c>
       <c r="X21" t="b">
         <v>1</v>
@@ -2107,55 +2143,55 @@
         <v>1658</v>
       </c>
       <c r="C22">
-        <v>3669.24</v>
+        <v>16592.49</v>
       </c>
       <c r="D22">
-        <v>857.33</v>
+        <v>7242.5</v>
       </c>
       <c r="E22">
-        <v>10369.78</v>
+        <v>26376.57</v>
       </c>
       <c r="F22">
-        <v>107532294.57</v>
+        <v>695723197.04</v>
       </c>
       <c r="G22">
-        <v>283</v>
+        <v>159</v>
       </c>
       <c r="H22">
-        <v>46.01</v>
+        <v>8000</v>
       </c>
       <c r="I22">
-        <v>15.22</v>
+        <v>352</v>
       </c>
       <c r="J22">
-        <v>253.31</v>
+        <v>3318.25</v>
       </c>
       <c r="K22">
-        <v>857.33</v>
+        <v>7242.5</v>
       </c>
       <c r="L22">
-        <v>2845.08</v>
+        <v>18438.75</v>
       </c>
       <c r="M22">
-        <v>142377.96</v>
+        <v>269742</v>
       </c>
       <c r="N22">
-        <v>142362.74</v>
+        <v>269390</v>
       </c>
       <c r="O22">
-        <v>7.42</v>
+        <v>4.18</v>
       </c>
       <c r="P22" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="Q22">
-        <v>68.86</v>
+        <v>24.12</v>
       </c>
       <c r="R22" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="S22">
-        <v>2201.246837598713</v>
+        <v>1472.736784008845</v>
       </c>
       <c r="T22">
         <v>0</v>
@@ -2164,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="V22">
-        <v>0.3271728754043579</v>
+        <v>1</v>
       </c>
       <c r="W22">
         <v>0</v>
@@ -2181,19 +2217,19 @@
         <v>1658</v>
       </c>
       <c r="C23">
-        <v>64.7</v>
+        <v>140.43</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>221.88</v>
+        <v>533.12</v>
       </c>
       <c r="F23">
-        <v>49230.42</v>
+        <v>284221.27</v>
       </c>
       <c r="G23">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2205,31 +2241,31 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>4055</v>
+        <v>7836.53</v>
       </c>
       <c r="N23">
-        <v>4055</v>
+        <v>7836.53</v>
       </c>
       <c r="O23">
-        <v>9.81</v>
+        <v>7.97</v>
       </c>
       <c r="P23" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="Q23">
-        <v>134.73</v>
+        <v>84.39</v>
       </c>
       <c r="R23" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="S23">
-        <v>2612.258591740941</v>
+        <v>2308.975162745259</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -2238,7 +2274,7 @@
         <v>1</v>
       </c>
       <c r="V23">
-        <v>0.2785390615463257</v>
+        <v>0.5</v>
       </c>
       <c r="W23">
         <v>0</v>
@@ -2255,64 +2291,64 @@
         <v>1658</v>
       </c>
       <c r="C24">
-        <v>1523443.63</v>
+        <v>177.39</v>
       </c>
       <c r="D24">
-        <v>485838.05</v>
+        <v>40</v>
       </c>
       <c r="E24">
-        <v>2659823.81</v>
+        <v>553.23</v>
       </c>
       <c r="F24">
-        <v>7074662690233.29</v>
+        <v>306064.36</v>
       </c>
       <c r="G24">
-        <v>175</v>
+        <v>312</v>
       </c>
       <c r="H24">
-        <v>6520265.915</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>3158</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>240582.12</v>
+        <v>5</v>
       </c>
       <c r="K24">
-        <v>485838.05</v>
+        <v>40</v>
       </c>
       <c r="L24">
-        <v>1182428.92</v>
+        <v>135</v>
       </c>
       <c r="M24">
-        <v>12106920.66</v>
+        <v>10740</v>
       </c>
       <c r="N24">
-        <v>12103762.66</v>
+        <v>10740</v>
       </c>
       <c r="O24">
-        <v>2.74</v>
+        <v>10.02</v>
       </c>
       <c r="P24" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="Q24">
-        <v>7.09</v>
+        <v>139.67</v>
       </c>
       <c r="R24" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="S24">
-        <v>935.1120446798527</v>
+        <v>2641.338717986096</v>
       </c>
       <c r="T24">
-        <v>8.769998460644957E-204</v>
+        <v>0</v>
       </c>
       <c r="U24" t="b">
         <v>1</v>
       </c>
       <c r="V24">
-        <v>0.5566232204437256</v>
+        <v>0.8226776385595258</v>
       </c>
       <c r="W24">
         <v>0</v>
@@ -2329,64 +2365,64 @@
         <v>1658</v>
       </c>
       <c r="C25">
-        <v>175.59</v>
+        <v>0.27</v>
       </c>
       <c r="D25">
-        <v>122.94</v>
+        <v>0.2</v>
       </c>
       <c r="E25">
-        <v>170.43</v>
+        <v>0.25</v>
       </c>
       <c r="F25">
-        <v>29045.88</v>
+        <v>0.06</v>
       </c>
       <c r="G25">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H25">
-        <v>182.45</v>
+        <v>0.11</v>
       </c>
       <c r="I25">
-        <v>11.63</v>
+        <v>0.02</v>
       </c>
       <c r="J25">
-        <v>75.27</v>
+        <v>0.12</v>
       </c>
       <c r="K25">
-        <v>122.94</v>
+        <v>0.2</v>
       </c>
       <c r="L25">
-        <v>205.24</v>
+        <v>0.32</v>
       </c>
       <c r="M25">
-        <v>1219.41</v>
+        <v>4.27</v>
       </c>
       <c r="N25">
-        <v>1207.78</v>
+        <v>4.25</v>
       </c>
       <c r="O25">
-        <v>2.8</v>
+        <v>4.74</v>
       </c>
       <c r="P25" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="Q25">
-        <v>9.73</v>
+        <v>48.26</v>
       </c>
       <c r="R25" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="S25">
-        <v>1002.125954286117</v>
+        <v>1698.645874623695</v>
       </c>
       <c r="T25">
-        <v>2.461013186650976E-218</v>
+        <v>0</v>
       </c>
       <c r="U25" t="b">
         <v>1</v>
       </c>
       <c r="V25">
-        <v>0.7016444802284241</v>
+        <v>0.5079783137169019</v>
       </c>
       <c r="W25">
         <v>0</v>
@@ -2403,55 +2439,55 @@
         <v>1658</v>
       </c>
       <c r="C26">
-        <v>16592.49</v>
+        <v>6.02</v>
       </c>
       <c r="D26">
-        <v>7242.5</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>26376.57</v>
+        <v>25.18</v>
       </c>
       <c r="F26">
-        <v>695723197.04</v>
+        <v>634.1799999999999</v>
       </c>
       <c r="G26">
-        <v>159</v>
+        <v>418</v>
       </c>
       <c r="H26">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>352</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>3318.25</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>7242.5</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>18438.75</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>269742</v>
+        <v>323.94</v>
       </c>
       <c r="N26">
-        <v>269390</v>
+        <v>323.94</v>
       </c>
       <c r="O26">
-        <v>4.18</v>
+        <v>6.16</v>
       </c>
       <c r="P26" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="Q26">
-        <v>24.12</v>
+        <v>49.35</v>
       </c>
       <c r="R26" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="S26">
-        <v>1472.736784008845</v>
+        <v>1955.230413682628</v>
       </c>
       <c r="T26">
         <v>0</v>
@@ -2460,7 +2496,7 @@
         <v>1</v>
       </c>
       <c r="V26">
-        <v>0.5631486177444458</v>
+        <v>0.5</v>
       </c>
       <c r="W26">
         <v>0</v>
@@ -2477,64 +2513,64 @@
         <v>1658</v>
       </c>
       <c r="C27">
-        <v>482.51</v>
+        <v>3132.94</v>
       </c>
       <c r="D27">
-        <v>326.23</v>
+        <v>710.48</v>
       </c>
       <c r="E27">
-        <v>473.9</v>
+        <v>9113.639999999999</v>
       </c>
       <c r="F27">
-        <v>224582.63</v>
+        <v>83058352.52</v>
       </c>
       <c r="G27">
-        <v>98</v>
+        <v>291</v>
       </c>
       <c r="H27">
-        <v>133.18</v>
+        <v>35</v>
       </c>
       <c r="I27">
-        <v>133.18</v>
+        <v>6</v>
       </c>
       <c r="J27">
-        <v>188.35</v>
+        <v>204.02</v>
       </c>
       <c r="K27">
-        <v>326.23</v>
+        <v>710.48</v>
       </c>
       <c r="L27">
-        <v>595.61</v>
+        <v>2353.73</v>
       </c>
       <c r="M27">
-        <v>4545.8</v>
+        <v>122779.72</v>
       </c>
       <c r="N27">
-        <v>4412.62</v>
+        <v>122773.72</v>
       </c>
       <c r="O27">
-        <v>3.03</v>
+        <v>7.71</v>
       </c>
       <c r="P27" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="Q27">
-        <v>13.93</v>
+        <v>74.69</v>
       </c>
       <c r="R27" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="S27">
-        <v>1121.268274015902</v>
+        <v>2254.923760722759</v>
       </c>
       <c r="T27">
-        <v>3.30893267463505E-244</v>
+        <v>0</v>
       </c>
       <c r="U27" t="b">
         <v>1</v>
       </c>
       <c r="V27">
-        <v>0.6953256130218506</v>
+        <v>0.9999999990134123</v>
       </c>
       <c r="W27">
         <v>0</v>
@@ -2551,64 +2587,64 @@
         <v>1658</v>
       </c>
       <c r="C28">
-        <v>615.8099999999999</v>
+        <v>1523443.63</v>
       </c>
       <c r="D28">
-        <v>149.2</v>
+        <v>485838.05</v>
       </c>
       <c r="E28">
-        <v>1734.8</v>
+        <v>2659823.81</v>
       </c>
       <c r="F28">
-        <v>3009529.41</v>
+        <v>7074662690233.29</v>
       </c>
       <c r="G28">
-        <v>282</v>
+        <v>175</v>
       </c>
       <c r="H28">
-        <v>7.35</v>
+        <v>6520265.915</v>
       </c>
       <c r="I28">
-        <v>1.26</v>
+        <v>3158</v>
       </c>
       <c r="J28">
-        <v>42.85</v>
+        <v>240582.12</v>
       </c>
       <c r="K28">
-        <v>149.2</v>
+        <v>485838.05</v>
       </c>
       <c r="L28">
-        <v>486.1</v>
+        <v>1182428.92</v>
       </c>
       <c r="M28">
-        <v>23327.25</v>
+        <v>12106920.66</v>
       </c>
       <c r="N28">
-        <v>23325.99</v>
+        <v>12103762.66</v>
       </c>
       <c r="O28">
-        <v>7.65</v>
+        <v>2.74</v>
       </c>
       <c r="P28" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="Q28">
-        <v>73.79000000000001</v>
+        <v>7.09</v>
       </c>
       <c r="R28" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="S28">
-        <v>2243.837308139562</v>
+        <v>935.1120446798527</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>8.769998460644957E-204</v>
       </c>
       <c r="U28" t="b">
         <v>1</v>
       </c>
       <c r="V28">
-        <v>0.325813353061676</v>
+        <v>1</v>
       </c>
       <c r="W28">
         <v>0</v>
@@ -2625,69 +2661,957 @@
         <v>1658</v>
       </c>
       <c r="C29">
-        <v>0.27</v>
+        <v>0.36</v>
       </c>
       <c r="D29">
+        <v>0.14</v>
+      </c>
+      <c r="E29">
+        <v>0.44</v>
+      </c>
+      <c r="F29">
         <v>0.2</v>
       </c>
-      <c r="E29">
-        <v>0.25</v>
-      </c>
-      <c r="F29">
+      <c r="G29">
+        <v>122</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0.01</v>
+      </c>
+      <c r="J29">
         <v>0.06</v>
       </c>
-      <c r="G29">
-        <v>93</v>
-      </c>
-      <c r="H29">
-        <v>0.11</v>
-      </c>
-      <c r="I29">
-        <v>0.02</v>
-      </c>
-      <c r="J29">
+      <c r="K29">
+        <v>0.14</v>
+      </c>
+      <c r="L29">
+        <v>0.57</v>
+      </c>
+      <c r="M29">
+        <v>3.51</v>
+      </c>
+      <c r="N29">
+        <v>3.5</v>
+      </c>
+      <c r="O29">
+        <v>1.93</v>
+      </c>
+      <c r="P29" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q29">
+        <v>5.82</v>
+      </c>
+      <c r="R29" t="s">
+        <v>66</v>
+      </c>
+      <c r="S29">
+        <v>685.8768310090161</v>
+      </c>
+      <c r="T29">
+        <v>1.15807987285617E-149</v>
+      </c>
+      <c r="U29" t="b">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>0.5031167048608426</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30">
+        <v>1658</v>
+      </c>
+      <c r="C30">
+        <v>366.35</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1508.15</v>
+      </c>
+      <c r="F30">
+        <v>2274529.93</v>
+      </c>
+      <c r="G30">
+        <v>412</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>250.09</v>
+      </c>
+      <c r="M30">
+        <v>42156.88</v>
+      </c>
+      <c r="N30">
+        <v>42156.88</v>
+      </c>
+      <c r="O30">
+        <v>15.73</v>
+      </c>
+      <c r="P30" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q30">
+        <v>374.24</v>
+      </c>
+      <c r="R30" t="s">
+        <v>66</v>
+      </c>
+      <c r="S30">
+        <v>3333.521540464851</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30" t="b">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>0.5</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31">
+        <v>1658</v>
+      </c>
+      <c r="C31">
+        <v>23.05</v>
+      </c>
+      <c r="D31">
+        <v>18.95</v>
+      </c>
+      <c r="E31">
+        <v>13.67</v>
+      </c>
+      <c r="F31">
+        <v>186.86</v>
+      </c>
+      <c r="G31">
+        <v>59</v>
+      </c>
+      <c r="H31">
+        <v>15.1</v>
+      </c>
+      <c r="I31">
+        <v>0.75</v>
+      </c>
+      <c r="J31">
+        <v>15.4</v>
+      </c>
+      <c r="K31">
+        <v>18.95</v>
+      </c>
+      <c r="L31">
+        <v>25.2</v>
+      </c>
+      <c r="M31">
+        <v>126.72</v>
+      </c>
+      <c r="N31">
+        <v>125.97</v>
+      </c>
+      <c r="O31">
+        <v>2.98</v>
+      </c>
+      <c r="P31" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q31">
+        <v>12.27</v>
+      </c>
+      <c r="R31" t="s">
+        <v>66</v>
+      </c>
+      <c r="S31">
+        <v>1087.96174048285</v>
+      </c>
+      <c r="T31">
+        <v>5.650798135848367E-237</v>
+      </c>
+      <c r="U31" t="b">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>0.9987872242601875</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32">
+        <v>1658</v>
+      </c>
+      <c r="C32">
+        <v>115.33</v>
+      </c>
+      <c r="D32">
+        <v>-110.13</v>
+      </c>
+      <c r="E32">
+        <v>1031.99</v>
+      </c>
+      <c r="F32">
+        <v>1065012.42</v>
+      </c>
+      <c r="G32">
+        <v>894.9999999999999</v>
+      </c>
+      <c r="H32">
+        <v>-101.84</v>
+      </c>
+      <c r="I32">
+        <v>-1336.38</v>
+      </c>
+      <c r="J32">
+        <v>-190.8</v>
+      </c>
+      <c r="K32">
+        <v>-110.14</v>
+      </c>
+      <c r="L32">
+        <v>-4.87</v>
+      </c>
+      <c r="M32">
+        <v>19108.44</v>
+      </c>
+      <c r="N32">
+        <v>20444.82</v>
+      </c>
+      <c r="O32">
+        <v>9.23</v>
+      </c>
+      <c r="P32" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q32">
+        <v>125.58</v>
+      </c>
+      <c r="R32" t="s">
+        <v>66</v>
+      </c>
+      <c r="S32">
+        <v>2531.335099455732</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32" t="b">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>0.7508604299788966</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33">
+        <v>1658</v>
+      </c>
+      <c r="C33">
+        <v>197.73</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>672.9</v>
+      </c>
+      <c r="F33">
+        <v>452798.74</v>
+      </c>
+      <c r="G33">
+        <v>340</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>67.09</v>
+      </c>
+      <c r="M33">
+        <v>11153.83</v>
+      </c>
+      <c r="N33">
+        <v>11153.83</v>
+      </c>
+      <c r="O33">
+        <v>7.46</v>
+      </c>
+      <c r="P33" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q33">
+        <v>81.69</v>
+      </c>
+      <c r="R33" t="s">
+        <v>66</v>
+      </c>
+      <c r="S33">
+        <v>2232.112335947473</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33" t="b">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>0.5</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34">
+        <v>1658</v>
+      </c>
+      <c r="C34">
+        <v>250.75</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>891.28</v>
+      </c>
+      <c r="F34">
+        <v>794388.38</v>
+      </c>
+      <c r="G34">
+        <v>355</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>104.44</v>
+      </c>
+      <c r="M34">
+        <v>13576.6</v>
+      </c>
+      <c r="N34">
+        <v>13576.6</v>
+      </c>
+      <c r="O34">
+        <v>7.7</v>
+      </c>
+      <c r="P34" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q34">
+        <v>78.29000000000001</v>
+      </c>
+      <c r="R34" t="s">
+        <v>66</v>
+      </c>
+      <c r="S34">
+        <v>2260.617780004173</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34" t="b">
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <v>0.5</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35">
+        <v>1658</v>
+      </c>
+      <c r="C35">
+        <v>0.21</v>
+      </c>
+      <c r="D35">
+        <v>0.21</v>
+      </c>
+      <c r="E35">
+        <v>0.01</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35">
+        <v>0.21</v>
+      </c>
+      <c r="I35">
+        <v>0.19</v>
+      </c>
+      <c r="J35">
+        <v>0.21</v>
+      </c>
+      <c r="K35">
+        <v>0.21</v>
+      </c>
+      <c r="L35">
+        <v>0.21</v>
+      </c>
+      <c r="M35">
+        <v>0.21</v>
+      </c>
+      <c r="N35">
+        <v>0.01999999999999999</v>
+      </c>
+      <c r="O35">
+        <v>-2.02</v>
+      </c>
+      <c r="P35" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q35">
+        <v>2.51</v>
+      </c>
+      <c r="R35" t="s">
+        <v>67</v>
+      </c>
+      <c r="S35">
+        <v>602.6473860111504</v>
+      </c>
+      <c r="T35">
+        <v>1.37019652251646E-131</v>
+      </c>
+      <c r="U35" t="b">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>0.5753454347347955</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36">
+        <v>1658</v>
+      </c>
+      <c r="C36">
+        <v>939.24</v>
+      </c>
+      <c r="D36">
+        <v>707.17</v>
+      </c>
+      <c r="E36">
+        <v>1071.22</v>
+      </c>
+      <c r="F36">
+        <v>1147510.03</v>
+      </c>
+      <c r="G36">
+        <v>114</v>
+      </c>
+      <c r="H36">
+        <v>1200.177</v>
+      </c>
+      <c r="I36">
+        <v>15.33</v>
+      </c>
+      <c r="J36">
+        <v>496.68</v>
+      </c>
+      <c r="K36">
+        <v>707.17</v>
+      </c>
+      <c r="L36">
+        <v>1099.41</v>
+      </c>
+      <c r="M36">
+        <v>14419.92</v>
+      </c>
+      <c r="N36">
+        <v>14404.59</v>
+      </c>
+      <c r="O36">
+        <v>5.7</v>
+      </c>
+      <c r="P36" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q36">
+        <v>44.05</v>
+      </c>
+      <c r="R36" t="s">
+        <v>66</v>
+      </c>
+      <c r="S36">
+        <v>1859.877384688301</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36" t="b">
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37">
+        <v>1658</v>
+      </c>
+      <c r="C37">
+        <v>2328.4</v>
+      </c>
+      <c r="D37">
+        <v>800</v>
+      </c>
+      <c r="E37">
+        <v>4247.73</v>
+      </c>
+      <c r="F37">
+        <v>18043178.34</v>
+      </c>
+      <c r="G37">
+        <v>182</v>
+      </c>
+      <c r="H37">
+        <v>200</v>
+      </c>
+      <c r="I37">
+        <v>50</v>
+      </c>
+      <c r="J37">
+        <v>390</v>
+      </c>
+      <c r="K37">
+        <v>800</v>
+      </c>
+      <c r="L37">
+        <v>1993.75</v>
+      </c>
+      <c r="M37">
+        <v>30000</v>
+      </c>
+      <c r="N37">
+        <v>29950</v>
+      </c>
+      <c r="O37">
+        <v>3.77</v>
+      </c>
+      <c r="P37" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q37">
+        <v>17.01</v>
+      </c>
+      <c r="R37" t="s">
+        <v>66</v>
+      </c>
+      <c r="S37">
+        <v>1326.506721972849</v>
+      </c>
+      <c r="T37">
+        <v>8.968611666122093E-289</v>
+      </c>
+      <c r="U37" t="b">
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
+      <c r="A38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38">
+        <v>1658</v>
+      </c>
+      <c r="C38">
+        <v>615.8099999999999</v>
+      </c>
+      <c r="D38">
+        <v>149.2</v>
+      </c>
+      <c r="E38">
+        <v>1734.8</v>
+      </c>
+      <c r="F38">
+        <v>3009529.41</v>
+      </c>
+      <c r="G38">
+        <v>282</v>
+      </c>
+      <c r="H38">
+        <v>7.35</v>
+      </c>
+      <c r="I38">
+        <v>1.26</v>
+      </c>
+      <c r="J38">
+        <v>42.85</v>
+      </c>
+      <c r="K38">
+        <v>149.2</v>
+      </c>
+      <c r="L38">
+        <v>486.1</v>
+      </c>
+      <c r="M38">
+        <v>23327.25</v>
+      </c>
+      <c r="N38">
+        <v>23325.99</v>
+      </c>
+      <c r="O38">
+        <v>7.65</v>
+      </c>
+      <c r="P38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q38">
+        <v>73.79000000000001</v>
+      </c>
+      <c r="R38" t="s">
+        <v>66</v>
+      </c>
+      <c r="S38">
+        <v>2243.837308139562</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38" t="b">
+        <v>1</v>
+      </c>
+      <c r="V38">
+        <v>0.9904090710568486</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
+      <c r="A39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39">
+        <v>1658</v>
+      </c>
+      <c r="C39">
+        <v>314.63</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>1162.83</v>
+      </c>
+      <c r="F39">
+        <v>1352181.92</v>
+      </c>
+      <c r="G39">
+        <v>370</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>178.02</v>
+      </c>
+      <c r="M39">
+        <v>20035.34</v>
+      </c>
+      <c r="N39">
+        <v>20035.34</v>
+      </c>
+      <c r="O39">
+        <v>9.43</v>
+      </c>
+      <c r="P39" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q39">
+        <v>120.52</v>
+      </c>
+      <c r="R39" t="s">
+        <v>66</v>
+      </c>
+      <c r="S39">
+        <v>2550.035958954777</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39" t="b">
+        <v>1</v>
+      </c>
+      <c r="V39">
+        <v>0.5</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40">
+        <v>1658</v>
+      </c>
+      <c r="C40">
+        <v>0.19</v>
+      </c>
+      <c r="D40">
         <v>0.12</v>
       </c>
-      <c r="K29">
-        <v>0.2</v>
-      </c>
-      <c r="L29">
-        <v>0.32</v>
-      </c>
-      <c r="M29">
-        <v>4.27</v>
-      </c>
-      <c r="N29">
-        <v>4.25</v>
-      </c>
-      <c r="O29">
-        <v>4.74</v>
-      </c>
-      <c r="P29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q29">
-        <v>48.26</v>
-      </c>
-      <c r="R29" t="s">
-        <v>54</v>
-      </c>
-      <c r="S29">
-        <v>1698.645874623695</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29" t="b">
-        <v>1</v>
-      </c>
-      <c r="V29">
-        <v>0.6717021465301514</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29" t="b">
+      <c r="E40">
+        <v>0.66</v>
+      </c>
+      <c r="F40">
+        <v>0.43</v>
+      </c>
+      <c r="G40">
+        <v>347</v>
+      </c>
+      <c r="H40">
+        <v>0.06</v>
+      </c>
+      <c r="I40">
+        <v>0.01</v>
+      </c>
+      <c r="J40">
+        <v>0.08</v>
+      </c>
+      <c r="K40">
+        <v>0.12</v>
+      </c>
+      <c r="L40">
+        <v>0.19</v>
+      </c>
+      <c r="M40">
+        <v>18.18</v>
+      </c>
+      <c r="N40">
+        <v>18.17</v>
+      </c>
+      <c r="O40">
+        <v>22.36</v>
+      </c>
+      <c r="P40" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q40">
+        <v>562.41</v>
+      </c>
+      <c r="R40" t="s">
+        <v>66</v>
+      </c>
+      <c r="S40">
+        <v>3877.707315416141</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40" t="b">
+        <v>1</v>
+      </c>
+      <c r="V40">
+        <v>0.5039893563146316</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
+      <c r="A41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41">
+        <v>1658</v>
+      </c>
+      <c r="C41">
+        <v>389.85</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>1341.93</v>
+      </c>
+      <c r="F41">
+        <v>1800787.42</v>
+      </c>
+      <c r="G41">
+        <v>344</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>278.21</v>
+      </c>
+      <c r="M41">
+        <v>23642.85</v>
+      </c>
+      <c r="N41">
+        <v>23642.85</v>
+      </c>
+      <c r="O41">
+        <v>9.18</v>
+      </c>
+      <c r="P41" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q41">
+        <v>111.22</v>
+      </c>
+      <c r="R41" t="s">
+        <v>66</v>
+      </c>
+      <c r="S41">
+        <v>2508.161801843401</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41" t="b">
+        <v>1</v>
+      </c>
+      <c r="V41">
+        <v>0.5</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Template/02_Analise_e_Exploracao_df_estat_continuas.xlsx
+++ b/Template/02_Analise_e_Exploracao_df_estat_continuas.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre\Ciência de Dados-Jupyter\TCC_Ciencia_de_Dados\Template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -223,8 +228,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,11 +292,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -333,7 +346,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -365,9 +378,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -399,6 +413,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -574,14 +589,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,7 +670,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -672,7 +687,7 @@
         <v>1060.58</v>
       </c>
       <c r="F2">
-        <v>1124839.37</v>
+        <v>1124839.3700000001</v>
       </c>
       <c r="G2">
         <v>362</v>
@@ -693,10 +708,10 @@
         <v>149.97</v>
       </c>
       <c r="M2">
-        <v>19763.92</v>
+        <v>19763.919999999998</v>
       </c>
       <c r="N2">
-        <v>19763.92</v>
+        <v>19763.919999999998</v>
       </c>
       <c r="O2">
         <v>10.09</v>
@@ -729,7 +744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -767,10 +782,10 @@
         <v>52.09</v>
       </c>
       <c r="M3">
-        <v>4198.31</v>
+        <v>4198.3100000000004</v>
       </c>
       <c r="N3">
-        <v>4198.31</v>
+        <v>4198.3100000000004</v>
       </c>
       <c r="O3">
         <v>10</v>
@@ -803,7 +818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -859,16 +874,16 @@
         <v>66</v>
       </c>
       <c r="S4">
-        <v>899.7399012158845</v>
+        <v>899.73990121588452</v>
       </c>
       <c r="T4">
-        <v>4.206906665720997E-196</v>
+        <v>4.2069066657209968E-196</v>
       </c>
       <c r="U4" t="b">
         <v>1</v>
       </c>
       <c r="V4">
-        <v>0.9834065235482564</v>
+        <v>0.98340652354825642</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -877,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -888,13 +903,13 @@
         <v>2138.17</v>
       </c>
       <c r="D5">
-        <v>1307.9</v>
+        <v>1307.9000000000001</v>
       </c>
       <c r="E5">
-        <v>2250.93</v>
+        <v>2250.9299999999998</v>
       </c>
       <c r="F5">
-        <v>5066689.35</v>
+        <v>5066689.3499999996</v>
       </c>
       <c r="G5">
         <v>105</v>
@@ -906,10 +921,10 @@
         <v>0.79</v>
       </c>
       <c r="J5">
-        <v>512.45</v>
+        <v>512.45000000000005</v>
       </c>
       <c r="K5">
-        <v>1307.9</v>
+        <v>1307.9000000000001</v>
       </c>
       <c r="L5">
         <v>3369.64</v>
@@ -933,7 +948,7 @@
         <v>67</v>
       </c>
       <c r="S5">
-        <v>332.372038667918</v>
+        <v>332.37203866791799</v>
       </c>
       <c r="T5">
         <v>6.703920165399042E-73</v>
@@ -942,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="V5">
-        <v>0.998646425874481</v>
+        <v>0.99864642587448105</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -951,7 +966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -968,7 +983,7 @@
         <v>739.01</v>
       </c>
       <c r="F6">
-        <v>546139.3100000001</v>
+        <v>546139.31000000006</v>
       </c>
       <c r="G6">
         <v>342</v>
@@ -1025,7 +1040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1033,7 +1048,7 @@
         <v>1658</v>
       </c>
       <c r="C7">
-        <v>536.3</v>
+        <v>536.29999999999995</v>
       </c>
       <c r="D7">
         <v>126.47</v>
@@ -1063,10 +1078,10 @@
         <v>418.28</v>
       </c>
       <c r="M7">
-        <v>19598.24</v>
+        <v>19598.240000000002</v>
       </c>
       <c r="N7">
-        <v>19597.49</v>
+        <v>19597.490000000002</v>
       </c>
       <c r="O7">
         <v>7.62</v>
@@ -1081,7 +1096,7 @@
         <v>66</v>
       </c>
       <c r="S7">
-        <v>2244.971432454806</v>
+        <v>2244.9714324548058</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -1090,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="V7">
-        <v>0.9987872242601875</v>
+        <v>0.99878722426018751</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1099,7 +1114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1110,7 +1125,7 @@
         <v>666.95</v>
       </c>
       <c r="D8">
-        <v>141.92</v>
+        <v>141.91999999999999</v>
       </c>
       <c r="E8">
         <v>1840.57</v>
@@ -1131,16 +1146,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>141.92</v>
+        <v>141.91999999999999</v>
       </c>
       <c r="L8">
         <v>549.98</v>
       </c>
       <c r="M8">
-        <v>24814.96</v>
+        <v>24814.959999999999</v>
       </c>
       <c r="N8">
-        <v>24814.96</v>
+        <v>24814.959999999999</v>
       </c>
       <c r="O8">
         <v>7.23</v>
@@ -1155,7 +1170,7 @@
         <v>66</v>
       </c>
       <c r="S8">
-        <v>2173.616530095134</v>
+        <v>2173.6165300951338</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -1164,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="V8">
-        <v>0.6580217129071171</v>
+        <v>0.65802171290711708</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -1173,7 +1188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1187,10 +1202,10 @@
         <v>857.33</v>
       </c>
       <c r="E9">
-        <v>10369.78</v>
+        <v>10369.780000000001</v>
       </c>
       <c r="F9">
-        <v>107532294.57</v>
+        <v>107532294.56999999</v>
       </c>
       <c r="G9">
         <v>283</v>
@@ -1229,7 +1244,7 @@
         <v>66</v>
       </c>
       <c r="S9">
-        <v>2201.246837598713</v>
+        <v>2201.2468375987128</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -1247,7 +1262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1267,7 +1282,7 @@
         <v>119917.53</v>
       </c>
       <c r="G10">
-        <v>511.0000000000001</v>
+        <v>511.00000000000011</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1321,7 +1336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1335,7 +1350,7 @@
         <v>33.97</v>
       </c>
       <c r="E11">
-        <v>526.6900000000001</v>
+        <v>526.69000000000005</v>
       </c>
       <c r="F11">
         <v>277402.77</v>
@@ -1359,10 +1374,10 @@
         <v>120.57</v>
       </c>
       <c r="M11">
-        <v>9544.969999999999</v>
+        <v>9544.9699999999993</v>
       </c>
       <c r="N11">
-        <v>9544.969999999999</v>
+        <v>9544.9699999999993</v>
       </c>
       <c r="O11">
         <v>9.07</v>
@@ -1377,7 +1392,7 @@
         <v>66</v>
       </c>
       <c r="S11">
-        <v>2495.591991414596</v>
+        <v>2495.5919914145961</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -1386,7 +1401,7 @@
         <v>1</v>
       </c>
       <c r="V11">
-        <v>0.7919640487017836</v>
+        <v>0.79196404870178361</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -1395,7 +1410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1445,7 +1460,7 @@
         <v>64</v>
       </c>
       <c r="Q12">
-        <v>134.73</v>
+        <v>134.72999999999999</v>
       </c>
       <c r="R12" t="s">
         <v>66</v>
@@ -1460,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="V12">
-        <v>0.6574182899467393</v>
+        <v>0.65741828994673934</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -1469,7 +1484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1519,13 +1534,13 @@
         <v>64</v>
       </c>
       <c r="Q13">
-        <v>65.76000000000001</v>
+        <v>65.760000000000005</v>
       </c>
       <c r="R13" t="s">
         <v>66</v>
       </c>
       <c r="S13">
-        <v>2174.220713724368</v>
+        <v>2174.2207137243681</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -1534,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="V13">
-        <v>0.5524728588661038</v>
+        <v>0.55247285886610376</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -1543,7 +1558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1566,7 +1581,7 @@
         <v>78</v>
       </c>
       <c r="H14">
-        <v>1.057</v>
+        <v>1.0569999999999999</v>
       </c>
       <c r="I14">
         <v>1.06</v>
@@ -1599,16 +1614,16 @@
         <v>66</v>
       </c>
       <c r="S14">
-        <v>790.5104526770174</v>
+        <v>790.51045267701738</v>
       </c>
       <c r="T14">
-        <v>2.202096049297796E-172</v>
+        <v>2.2020960492977961E-172</v>
       </c>
       <c r="U14" t="b">
         <v>1</v>
       </c>
       <c r="V14">
-        <v>0.9971275972286122</v>
+        <v>0.99712759722861222</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -1617,7 +1632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1634,7 +1649,7 @@
         <v>8691.09</v>
       </c>
       <c r="F15">
-        <v>75535060.06999999</v>
+        <v>75535060.069999993</v>
       </c>
       <c r="G15">
         <v>290</v>
@@ -1655,10 +1670,10 @@
         <v>2344.27</v>
       </c>
       <c r="M15">
-        <v>121146.24</v>
+        <v>121146.24000000001</v>
       </c>
       <c r="N15">
-        <v>121146.24</v>
+        <v>121146.24000000001</v>
       </c>
       <c r="O15">
         <v>7.81</v>
@@ -1673,7 +1688,7 @@
         <v>66</v>
       </c>
       <c r="S15">
-        <v>2273.381736130436</v>
+        <v>2273.3817361304359</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -1682,7 +1697,7 @@
         <v>1</v>
       </c>
       <c r="V15">
-        <v>0.9523522164807602</v>
+        <v>0.95235221648076018</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -1691,7 +1706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1729,10 +1744,10 @@
         <v>237.96</v>
       </c>
       <c r="M16">
-        <v>30521.12</v>
+        <v>30521.119999999999</v>
       </c>
       <c r="N16">
-        <v>30521.12</v>
+        <v>30521.119999999999</v>
       </c>
       <c r="O16">
         <v>11.57</v>
@@ -1747,7 +1762,7 @@
         <v>66</v>
       </c>
       <c r="S16">
-        <v>2861.682973678097</v>
+        <v>2861.6829736780969</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -1765,7 +1780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1821,10 +1836,10 @@
         <v>66</v>
       </c>
       <c r="S17">
-        <v>1121.268274015902</v>
+        <v>1121.2682740159021</v>
       </c>
       <c r="T17">
-        <v>3.30893267463505E-244</v>
+        <v>3.3089326746350499E-244</v>
       </c>
       <c r="U17" t="b">
         <v>1</v>
@@ -1839,7 +1854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1877,7 +1892,7 @@
         <v>205.24</v>
       </c>
       <c r="M18">
-        <v>1219.41</v>
+        <v>1219.4100000000001</v>
       </c>
       <c r="N18">
         <v>1207.78</v>
@@ -1913,7 +1928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1924,7 +1939,7 @@
         <v>38.67</v>
       </c>
       <c r="D19">
-        <v>18.99</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="E19">
         <v>47.09</v>
@@ -1936,19 +1951,19 @@
         <v>122</v>
       </c>
       <c r="H19">
-        <v>18.99</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="I19">
-        <v>18.99</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="J19">
-        <v>18.99</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="K19">
-        <v>18.99</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="L19">
-        <v>18.99</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="M19">
         <v>173.99</v>
@@ -1969,10 +1984,10 @@
         <v>66</v>
       </c>
       <c r="S19">
-        <v>738.28936510299</v>
+        <v>738.28936510299002</v>
       </c>
       <c r="T19">
-        <v>4.81394743711386E-161</v>
+        <v>4.8139474371138597E-161</v>
       </c>
       <c r="U19" t="b">
         <v>1</v>
@@ -1987,7 +2002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -2031,7 +2046,7 @@
         <v>20401.27</v>
       </c>
       <c r="O20">
-        <v>8.029999999999999</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="P20" t="s">
         <v>64</v>
@@ -2043,7 +2058,7 @@
         <v>66</v>
       </c>
       <c r="S20">
-        <v>2308.444610336309</v>
+        <v>2308.4446103363089</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -2061,7 +2076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -2069,7 +2084,7 @@
         <v>1658</v>
       </c>
       <c r="C21">
-        <v>940.8200000000001</v>
+        <v>940.82</v>
       </c>
       <c r="D21">
         <v>243.6</v>
@@ -2090,7 +2105,7 @@
         <v>25.25</v>
       </c>
       <c r="J21">
-        <v>82.29000000000001</v>
+        <v>82.29</v>
       </c>
       <c r="K21">
         <v>243.6</v>
@@ -2117,7 +2132,7 @@
         <v>66</v>
       </c>
       <c r="S21">
-        <v>1909.999648381389</v>
+        <v>1909.9996483813891</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -2135,7 +2150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -2143,7 +2158,7 @@
         <v>1658</v>
       </c>
       <c r="C22">
-        <v>16592.49</v>
+        <v>16592.490000000002</v>
       </c>
       <c r="D22">
         <v>7242.5</v>
@@ -2152,7 +2167,7 @@
         <v>26376.57</v>
       </c>
       <c r="F22">
-        <v>695723197.04</v>
+        <v>695723197.03999996</v>
       </c>
       <c r="G22">
         <v>159</v>
@@ -2209,7 +2224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -2265,7 +2280,7 @@
         <v>66</v>
       </c>
       <c r="S23">
-        <v>2308.975162745259</v>
+        <v>2308.9751627452588</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -2283,7 +2298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -2333,13 +2348,13 @@
         <v>64</v>
       </c>
       <c r="Q24">
-        <v>139.67</v>
+        <v>139.66999999999999</v>
       </c>
       <c r="R24" t="s">
         <v>66</v>
       </c>
       <c r="S24">
-        <v>2641.338717986096</v>
+        <v>2641.3387179860961</v>
       </c>
       <c r="T24">
         <v>0</v>
@@ -2357,7 +2372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -2395,7 +2410,7 @@
         <v>0.32</v>
       </c>
       <c r="M25">
-        <v>4.27</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="N25">
         <v>4.25</v>
@@ -2413,7 +2428,7 @@
         <v>66</v>
       </c>
       <c r="S25">
-        <v>1698.645874623695</v>
+        <v>1698.6458746236949</v>
       </c>
       <c r="T25">
         <v>0</v>
@@ -2422,7 +2437,7 @@
         <v>1</v>
       </c>
       <c r="V25">
-        <v>0.5079783137169019</v>
+        <v>0.50797831371690194</v>
       </c>
       <c r="W25">
         <v>0</v>
@@ -2431,7 +2446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -2448,7 +2463,7 @@
         <v>25.18</v>
       </c>
       <c r="F26">
-        <v>634.1799999999999</v>
+        <v>634.17999999999995</v>
       </c>
       <c r="G26">
         <v>418</v>
@@ -2487,7 +2502,7 @@
         <v>66</v>
       </c>
       <c r="S26">
-        <v>1955.230413682628</v>
+        <v>1955.2304136826281</v>
       </c>
       <c r="T26">
         <v>0</v>
@@ -2505,7 +2520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -2519,10 +2534,10 @@
         <v>710.48</v>
       </c>
       <c r="E27">
-        <v>9113.639999999999</v>
+        <v>9113.64</v>
       </c>
       <c r="F27">
-        <v>83058352.52</v>
+        <v>83058352.519999996</v>
       </c>
       <c r="G27">
         <v>291</v>
@@ -2561,7 +2576,7 @@
         <v>66</v>
       </c>
       <c r="S27">
-        <v>2254.923760722759</v>
+        <v>2254.9237607227592</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -2579,7 +2594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -2635,10 +2650,10 @@
         <v>66</v>
       </c>
       <c r="S28">
-        <v>935.1120446798527</v>
+        <v>935.11204467985272</v>
       </c>
       <c r="T28">
-        <v>8.769998460644957E-204</v>
+        <v>8.7699984606449575E-204</v>
       </c>
       <c r="U28" t="b">
         <v>1</v>
@@ -2653,7 +2668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -2664,7 +2679,7 @@
         <v>0.36</v>
       </c>
       <c r="D29">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E29">
         <v>0.44</v>
@@ -2685,10 +2700,10 @@
         <v>0.06</v>
       </c>
       <c r="K29">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L29">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="M29">
         <v>3.51</v>
@@ -2709,7 +2724,7 @@
         <v>66</v>
       </c>
       <c r="S29">
-        <v>685.8768310090161</v>
+        <v>685.87683100901609</v>
       </c>
       <c r="T29">
         <v>1.15807987285617E-149</v>
@@ -2718,7 +2733,7 @@
         <v>1</v>
       </c>
       <c r="V29">
-        <v>0.5031167048608426</v>
+        <v>0.50311670486084259</v>
       </c>
       <c r="W29">
         <v>0</v>
@@ -2727,7 +2742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -2744,7 +2759,7 @@
         <v>1508.15</v>
       </c>
       <c r="F30">
-        <v>2274529.93</v>
+        <v>2274529.9300000002</v>
       </c>
       <c r="G30">
         <v>412</v>
@@ -2783,7 +2798,7 @@
         <v>66</v>
       </c>
       <c r="S30">
-        <v>3333.521540464851</v>
+        <v>3333.5215404648511</v>
       </c>
       <c r="T30">
         <v>0</v>
@@ -2801,7 +2816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -2860,13 +2875,13 @@
         <v>1087.96174048285</v>
       </c>
       <c r="T31">
-        <v>5.650798135848367E-237</v>
+        <v>5.6507981358483673E-237</v>
       </c>
       <c r="U31" t="b">
         <v>1</v>
       </c>
       <c r="V31">
-        <v>0.9987872242601875</v>
+        <v>0.99878722426018751</v>
       </c>
       <c r="W31">
         <v>0</v>
@@ -2875,7 +2890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -2895,7 +2910,7 @@
         <v>1065012.42</v>
       </c>
       <c r="G32">
-        <v>894.9999999999999</v>
+        <v>894.99999999999989</v>
       </c>
       <c r="H32">
         <v>-101.84</v>
@@ -2913,7 +2928,7 @@
         <v>-4.87</v>
       </c>
       <c r="M32">
-        <v>19108.44</v>
+        <v>19108.439999999999</v>
       </c>
       <c r="N32">
         <v>20444.82</v>
@@ -2931,7 +2946,7 @@
         <v>66</v>
       </c>
       <c r="S32">
-        <v>2531.335099455732</v>
+        <v>2531.3350994557318</v>
       </c>
       <c r="T32">
         <v>0</v>
@@ -2940,7 +2955,7 @@
         <v>1</v>
       </c>
       <c r="V32">
-        <v>0.7508604299788966</v>
+        <v>0.75086042997889657</v>
       </c>
       <c r="W32">
         <v>0</v>
@@ -2949,7 +2964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -3005,7 +3020,7 @@
         <v>66</v>
       </c>
       <c r="S33">
-        <v>2232.112335947473</v>
+        <v>2232.1123359474732</v>
       </c>
       <c r="T33">
         <v>0</v>
@@ -3023,7 +3038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -3073,13 +3088,13 @@
         <v>64</v>
       </c>
       <c r="Q34">
-        <v>78.29000000000001</v>
+        <v>78.290000000000006</v>
       </c>
       <c r="R34" t="s">
         <v>66</v>
       </c>
       <c r="S34">
-        <v>2260.617780004173</v>
+        <v>2260.6177800041728</v>
       </c>
       <c r="T34">
         <v>0</v>
@@ -3097,7 +3112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:24">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -3138,7 +3153,7 @@
         <v>0.21</v>
       </c>
       <c r="N35">
-        <v>0.01999999999999999</v>
+        <v>1.999999999999999E-2</v>
       </c>
       <c r="O35">
         <v>-2.02</v>
@@ -3147,22 +3162,22 @@
         <v>65</v>
       </c>
       <c r="Q35">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="R35" t="s">
         <v>67</v>
       </c>
       <c r="S35">
-        <v>602.6473860111504</v>
+        <v>602.64738601115039</v>
       </c>
       <c r="T35">
-        <v>1.37019652251646E-131</v>
+        <v>1.3701965225164599E-131</v>
       </c>
       <c r="U35" t="b">
         <v>1</v>
       </c>
       <c r="V35">
-        <v>0.5753454347347955</v>
+        <v>0.57534543473479549</v>
       </c>
       <c r="W35">
         <v>0</v>
@@ -3171,7 +3186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -3194,7 +3209,7 @@
         <v>114</v>
       </c>
       <c r="H36">
-        <v>1200.177</v>
+        <v>1200.1769999999999</v>
       </c>
       <c r="I36">
         <v>15.33</v>
@@ -3206,7 +3221,7 @@
         <v>707.17</v>
       </c>
       <c r="L36">
-        <v>1099.41</v>
+        <v>1099.4100000000001</v>
       </c>
       <c r="M36">
         <v>14419.92</v>
@@ -3227,7 +3242,7 @@
         <v>66</v>
       </c>
       <c r="S36">
-        <v>1859.877384688301</v>
+        <v>1859.8773846883009</v>
       </c>
       <c r="T36">
         <v>0</v>
@@ -3245,7 +3260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -3259,7 +3274,7 @@
         <v>800</v>
       </c>
       <c r="E37">
-        <v>4247.73</v>
+        <v>4247.7299999999996</v>
       </c>
       <c r="F37">
         <v>18043178.34</v>
@@ -3295,13 +3310,13 @@
         <v>64</v>
       </c>
       <c r="Q37">
-        <v>17.01</v>
+        <v>17.010000000000002</v>
       </c>
       <c r="R37" t="s">
         <v>66</v>
       </c>
       <c r="S37">
-        <v>1326.506721972849</v>
+        <v>1326.5067219728489</v>
       </c>
       <c r="T37">
         <v>8.968611666122093E-289</v>
@@ -3319,7 +3334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -3327,10 +3342,10 @@
         <v>1658</v>
       </c>
       <c r="C38">
-        <v>615.8099999999999</v>
+        <v>615.80999999999995</v>
       </c>
       <c r="D38">
-        <v>149.2</v>
+        <v>149.19999999999999</v>
       </c>
       <c r="E38">
         <v>1734.8</v>
@@ -3351,7 +3366,7 @@
         <v>42.85</v>
       </c>
       <c r="K38">
-        <v>149.2</v>
+        <v>149.19999999999999</v>
       </c>
       <c r="L38">
         <v>486.1</v>
@@ -3369,13 +3384,13 @@
         <v>64</v>
       </c>
       <c r="Q38">
-        <v>73.79000000000001</v>
+        <v>73.790000000000006</v>
       </c>
       <c r="R38" t="s">
         <v>66</v>
       </c>
       <c r="S38">
-        <v>2243.837308139562</v>
+        <v>2243.8373081395621</v>
       </c>
       <c r="T38">
         <v>0</v>
@@ -3384,7 +3399,7 @@
         <v>1</v>
       </c>
       <c r="V38">
-        <v>0.9904090710568486</v>
+        <v>0.99040907105684861</v>
       </c>
       <c r="W38">
         <v>0</v>
@@ -3393,7 +3408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -3467,7 +3482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -3508,7 +3523,7 @@
         <v>18.18</v>
       </c>
       <c r="N40">
-        <v>18.17</v>
+        <v>18.170000000000002</v>
       </c>
       <c r="O40">
         <v>22.36</v>
@@ -3523,7 +3538,7 @@
         <v>66</v>
       </c>
       <c r="S40">
-        <v>3877.707315416141</v>
+        <v>3877.7073154161408</v>
       </c>
       <c r="T40">
         <v>0</v>
@@ -3541,7 +3556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -3576,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>278.21</v>
+        <v>278.20999999999998</v>
       </c>
       <c r="M41">
         <v>23642.85</v>
